--- a/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD4/LR-pairs_lrc2p/Lgi1-Adam11.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="52" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -76,6 +76,9 @@
     <t>Edge total expression derived specificity</t>
   </si>
   <si>
+    <t>ECs</t>
+  </si>
+  <si>
     <t>MuSCs</t>
   </si>
   <si>
@@ -85,16 +88,10 @@
     <t>Adam11</t>
   </si>
   <si>
-    <t>ECs</t>
-  </si>
-  <si>
     <t>FAPs</t>
   </si>
   <si>
     <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>Resolving-Mac</t>
   </si>
 </sst>
 </file>
@@ -452,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,31 +522,31 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H2">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K2">
         <v>2</v>
@@ -558,28 +555,28 @@
         <v>0.6666666666666666</v>
       </c>
       <c r="M2">
-        <v>0.1597026666666667</v>
+        <v>0.1135006666666667</v>
       </c>
       <c r="N2">
-        <v>0.479108</v>
+        <v>0.340502</v>
       </c>
       <c r="O2">
-        <v>0.04388290247716727</v>
+        <v>0.1328118661732309</v>
       </c>
       <c r="P2">
-        <v>0.06180863149382944</v>
+        <v>0.1579033525861449</v>
       </c>
       <c r="Q2">
-        <v>0.010379635266</v>
+        <v>4.642177266666667E-05</v>
       </c>
       <c r="R2">
-        <v>0.06227781159600002</v>
+        <v>0.000417795954</v>
       </c>
       <c r="S2">
-        <v>0.04388290247716727</v>
+        <v>0.02185038345327893</v>
       </c>
       <c r="T2">
-        <v>0.06180863149382944</v>
+        <v>0.03600583787831255</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,31 +584,31 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D3" t="s">
         <v>24</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H3">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K3">
         <v>1</v>
@@ -626,22 +623,22 @@
         <v>0.549087</v>
       </c>
       <c r="O3">
-        <v>0.05029248368317861</v>
+        <v>0.2141698702546853</v>
       </c>
       <c r="P3">
-        <v>0.07083646284564717</v>
+        <v>0.2546319204041931</v>
       </c>
       <c r="Q3">
-        <v>0.0118956953115</v>
+        <v>7.485886100000001E-05</v>
       </c>
       <c r="R3">
-        <v>0.07137417186900001</v>
+        <v>0.000673729749</v>
       </c>
       <c r="S3">
-        <v>0.05029248368317861</v>
+        <v>0.03523550962758096</v>
       </c>
       <c r="T3">
-        <v>0.07083646284564717</v>
+        <v>0.05806232416575823</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="D4" t="s">
         <v>25</v>
       </c>
       <c r="E4">
+        <v>1</v>
+      </c>
+      <c r="F4">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G4">
+        <v>0.000409</v>
+      </c>
+      <c r="H4">
+        <v>0.001227</v>
+      </c>
+      <c r="I4">
+        <v>0.164521319388576</v>
+      </c>
+      <c r="J4">
+        <v>0.228024530756365</v>
+      </c>
+      <c r="K4">
         <v>2</v>
       </c>
-      <c r="F4">
-        <v>1</v>
-      </c>
-      <c r="G4">
-        <v>0.06499350000000001</v>
-      </c>
-      <c r="H4">
-        <v>0.129987</v>
-      </c>
-      <c r="I4">
-        <v>1</v>
-      </c>
-      <c r="J4">
-        <v>1</v>
-      </c>
-      <c r="K4">
-        <v>1</v>
-      </c>
       <c r="L4">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.103563</v>
+        <v>0.1506706666666666</v>
       </c>
       <c r="N4">
-        <v>0.310689</v>
+        <v>0.452012</v>
       </c>
       <c r="O4">
-        <v>0.0284569138643659</v>
+        <v>0.1763060341868607</v>
       </c>
       <c r="P4">
-        <v>0.04008128002493461</v>
+        <v>0.209614657796925</v>
       </c>
       <c r="Q4">
-        <v>0.006730921840500001</v>
+        <v>6.162430266666666E-05</v>
       </c>
       <c r="R4">
-        <v>0.040385531043</v>
+        <v>0.0005546187239999999</v>
       </c>
       <c r="S4">
-        <v>0.0284569138643659</v>
+        <v>0.02900610136058971</v>
       </c>
       <c r="T4">
-        <v>0.04008128002493461</v>
+        <v>0.04779728398379984</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,31 +708,31 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>22</v>
+      </c>
+      <c r="C5" t="s">
+        <v>23</v>
+      </c>
+      <c r="D5" t="s">
         <v>21</v>
       </c>
-      <c r="C5" t="s">
-        <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>20</v>
-      </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.06499350000000001</v>
+        <v>0.000409</v>
       </c>
       <c r="H5">
-        <v>0.129987</v>
+        <v>0.001227</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.164521319388576</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.228024530756365</v>
       </c>
       <c r="K5">
         <v>2</v>
@@ -744,90 +741,276 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.1664</v>
+        <v>0.407397</v>
       </c>
       <c r="N5">
-        <v>6.3328</v>
+        <v>0.814794</v>
       </c>
       <c r="O5">
-        <v>0.8700595005950792</v>
+        <v>0.4767122293852232</v>
       </c>
       <c r="P5">
-        <v>0.816980099526877</v>
+        <v>0.3778500692127371</v>
       </c>
       <c r="Q5">
-        <v>0.2057954184</v>
+        <v>0.000166625373</v>
       </c>
       <c r="R5">
-        <v>0.8231816736000001</v>
+        <v>0.0009997522379999999</v>
       </c>
       <c r="S5">
-        <v>0.8700595005950792</v>
+        <v>0.07842932494712643</v>
       </c>
       <c r="T5">
-        <v>0.816980099526877</v>
+        <v>0.0861590847284944</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
+        <v>21</v>
+      </c>
+      <c r="B6" t="s">
+        <v>22</v>
+      </c>
+      <c r="C6" t="s">
+        <v>23</v>
+      </c>
+      <c r="D6" t="s">
         <v>20</v>
       </c>
-      <c r="B6" t="s">
+      <c r="E6">
+        <v>1</v>
+      </c>
+      <c r="F6">
+        <v>0.5</v>
+      </c>
+      <c r="G6">
+        <v>0.002077</v>
+      </c>
+      <c r="H6">
+        <v>0.004154</v>
+      </c>
+      <c r="I6">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J6">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K6">
+        <v>2</v>
+      </c>
+      <c r="L6">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M6">
+        <v>0.1135006666666667</v>
+      </c>
+      <c r="N6">
+        <v>0.340502</v>
+      </c>
+      <c r="O6">
+        <v>0.1328118661732309</v>
+      </c>
+      <c r="P6">
+        <v>0.1579033525861449</v>
+      </c>
+      <c r="Q6">
+        <v>0.0002357408846666666</v>
+      </c>
+      <c r="R6">
+        <v>0.001414445308</v>
+      </c>
+      <c r="S6">
+        <v>0.1109614827199519</v>
+      </c>
+      <c r="T6">
+        <v>0.1218975147078324</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
         <v>21</v>
       </c>
-      <c r="C6" t="s">
+      <c r="B7" t="s">
         <v>22</v>
       </c>
-      <c r="D6" t="s">
-        <v>26</v>
-      </c>
-      <c r="E6">
+      <c r="C7" t="s">
+        <v>23</v>
+      </c>
+      <c r="D7" t="s">
+        <v>24</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.5</v>
+      </c>
+      <c r="G7">
+        <v>0.002077</v>
+      </c>
+      <c r="H7">
+        <v>0.004154</v>
+      </c>
+      <c r="I7">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J7">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.183029</v>
+      </c>
+      <c r="N7">
+        <v>0.549087</v>
+      </c>
+      <c r="O7">
+        <v>0.2141698702546853</v>
+      </c>
+      <c r="P7">
+        <v>0.2546319204041931</v>
+      </c>
+      <c r="Q7">
+        <v>0.0003801512329999999</v>
+      </c>
+      <c r="R7">
+        <v>0.002280907398</v>
+      </c>
+      <c r="S7">
+        <v>0.1789343606271043</v>
+      </c>
+      <c r="T7">
+        <v>0.1965695962384349</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>22</v>
+      </c>
+      <c r="C8" t="s">
+        <v>23</v>
+      </c>
+      <c r="D8" t="s">
+        <v>25</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.5</v>
+      </c>
+      <c r="G8">
+        <v>0.002077</v>
+      </c>
+      <c r="H8">
+        <v>0.004154</v>
+      </c>
+      <c r="I8">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J8">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K8">
         <v>2</v>
       </c>
-      <c r="F6">
-        <v>1</v>
-      </c>
-      <c r="G6">
-        <v>0.06499350000000001</v>
-      </c>
-      <c r="H6">
-        <v>0.129987</v>
-      </c>
-      <c r="I6">
-        <v>1</v>
-      </c>
-      <c r="J6">
-        <v>1</v>
-      </c>
-      <c r="K6">
-        <v>1</v>
-      </c>
-      <c r="L6">
-        <v>0.3333333333333333</v>
-      </c>
-      <c r="M6">
-        <v>0.02659666666666667</v>
-      </c>
-      <c r="N6">
-        <v>0.07979</v>
-      </c>
-      <c r="O6">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="P6">
-        <v>0.01029352610871171</v>
-      </c>
-      <c r="Q6">
-        <v>0.001728610455</v>
-      </c>
-      <c r="R6">
-        <v>0.01037166273</v>
-      </c>
-      <c r="S6">
-        <v>0.007308199380209005</v>
-      </c>
-      <c r="T6">
-        <v>0.01029352610871171</v>
+      <c r="L8">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M8">
+        <v>0.1506706666666666</v>
+      </c>
+      <c r="N8">
+        <v>0.452012</v>
+      </c>
+      <c r="O8">
+        <v>0.1763060341868607</v>
+      </c>
+      <c r="P8">
+        <v>0.209614657796925</v>
+      </c>
+      <c r="Q8">
+        <v>0.0003129429746666666</v>
+      </c>
+      <c r="R8">
+        <v>0.001877657848</v>
+      </c>
+      <c r="S8">
+        <v>0.147299932826271</v>
+      </c>
+      <c r="T8">
+        <v>0.1618173738131251</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>22</v>
+      </c>
+      <c r="C9" t="s">
+        <v>23</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.5</v>
+      </c>
+      <c r="G9">
+        <v>0.002077</v>
+      </c>
+      <c r="H9">
+        <v>0.004154</v>
+      </c>
+      <c r="I9">
+        <v>0.8354786806114239</v>
+      </c>
+      <c r="J9">
+        <v>0.771975469243635</v>
+      </c>
+      <c r="K9">
+        <v>2</v>
+      </c>
+      <c r="L9">
+        <v>1</v>
+      </c>
+      <c r="M9">
+        <v>0.407397</v>
+      </c>
+      <c r="N9">
+        <v>0.814794</v>
+      </c>
+      <c r="O9">
+        <v>0.4767122293852232</v>
+      </c>
+      <c r="P9">
+        <v>0.3778500692127371</v>
+      </c>
+      <c r="Q9">
+        <v>0.0008461635689999999</v>
+      </c>
+      <c r="R9">
+        <v>0.003384654276</v>
+      </c>
+      <c r="S9">
+        <v>0.3982829044380967</v>
+      </c>
+      <c r="T9">
+        <v>0.2916909844842427</v>
       </c>
     </row>
   </sheetData>
